--- a/data/Subset1_WithDialogActs/Towers 3_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Towers 3_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2009,12 +2009,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2093,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2135,12 +2135,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2505,12 +2505,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2883,12 +2883,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3757,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4093,12 +4093,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
